--- a/Code/Results/Cases/Case_9_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949578092912071</v>
+        <v>0.9953971362243558</v>
       </c>
       <c r="D2">
-        <v>1.017559350164629</v>
+        <v>1.017734535903377</v>
       </c>
       <c r="E2">
-        <v>1.002108879358821</v>
+        <v>1.002493152683776</v>
       </c>
       <c r="F2">
-        <v>1.023143657582722</v>
+        <v>1.02331401487173</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042862929031517</v>
+        <v>1.042947166823362</v>
       </c>
       <c r="J2">
-        <v>1.017290384473012</v>
+        <v>1.017716395178891</v>
       </c>
       <c r="K2">
-        <v>1.028779357741837</v>
+        <v>1.028952208016189</v>
       </c>
       <c r="L2">
-        <v>1.013538912122556</v>
+        <v>1.013917862864508</v>
       </c>
       <c r="M2">
-        <v>1.034289712218806</v>
+        <v>1.034457829373117</v>
       </c>
       <c r="N2">
-        <v>1.009686935516349</v>
+        <v>1.011908540651623</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035710381478537</v>
+        <v>1.035843435813654</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031419653197128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031550732565643</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019828598775676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984969150515308</v>
+        <v>0.9988077137685797</v>
       </c>
       <c r="D3">
-        <v>1.019862680560936</v>
+        <v>1.01986776955923</v>
       </c>
       <c r="E3">
-        <v>1.004861769704241</v>
+        <v>1.00513435358829</v>
       </c>
       <c r="F3">
-        <v>1.025756890467031</v>
+        <v>1.025868778852515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043437725277172</v>
+        <v>1.04345089968386</v>
       </c>
       <c r="J3">
-        <v>1.019028639716564</v>
+        <v>1.019330934564421</v>
       </c>
       <c r="K3">
-        <v>1.030247569273717</v>
+        <v>1.030252596272886</v>
       </c>
       <c r="L3">
-        <v>1.015432818948269</v>
+        <v>1.015701958233503</v>
       </c>
       <c r="M3">
-        <v>1.036070481814352</v>
+        <v>1.036181026611313</v>
       </c>
       <c r="N3">
-        <v>1.010279483770562</v>
+        <v>1.012345965800529</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037119749263905</v>
+        <v>1.03720723846634</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032455135392387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032467269337276</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020076986711872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000748975619627</v>
+        <v>1.000978905559041</v>
       </c>
       <c r="D4">
-        <v>1.021331498707811</v>
+        <v>1.021228941132923</v>
       </c>
       <c r="E4">
-        <v>1.006619519912001</v>
+        <v>1.006821723623841</v>
       </c>
       <c r="F4">
-        <v>1.027425828114735</v>
+        <v>1.027500922629956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043793999760217</v>
+        <v>1.043762161129385</v>
       </c>
       <c r="J4">
-        <v>1.020133541909324</v>
+        <v>1.020357603936225</v>
       </c>
       <c r="K4">
-        <v>1.031179111739915</v>
+        <v>1.03107772907109</v>
       </c>
       <c r="L4">
-        <v>1.016638704316165</v>
+        <v>1.016838507822107</v>
       </c>
       <c r="M4">
-        <v>1.037204143084779</v>
+        <v>1.037278390025001</v>
       </c>
       <c r="N4">
-        <v>1.010655990303415</v>
+        <v>1.012624061801275</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038016969818579</v>
+        <v>1.038075731494578</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033114732284029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033051705231757</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020232206493225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001689735158406</v>
+        <v>1.001886070642643</v>
       </c>
       <c r="D5">
-        <v>1.021948021726508</v>
+        <v>1.021800658000812</v>
       </c>
       <c r="E5">
-        <v>1.007355539864625</v>
+        <v>1.007528481168604</v>
       </c>
       <c r="F5">
-        <v>1.028123630970529</v>
+        <v>1.028183441844466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043941898919623</v>
+        <v>1.043891306022946</v>
       </c>
       <c r="J5">
-        <v>1.020596151687516</v>
+        <v>1.020787625519613</v>
       </c>
       <c r="K5">
-        <v>1.031570432344628</v>
+        <v>1.031424712334656</v>
       </c>
       <c r="L5">
-        <v>1.017143599367407</v>
+        <v>1.017314542798284</v>
       </c>
       <c r="M5">
-        <v>1.037677678496636</v>
+        <v>1.037736832206014</v>
       </c>
       <c r="N5">
-        <v>1.010813846919824</v>
+        <v>1.01274072583613</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038391742546053</v>
+        <v>1.038438558876813</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03339866863559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033305000691532</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020297348086641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001850624729983</v>
+        <v>1.002041198069898</v>
       </c>
       <c r="D6">
-        <v>1.0220562187042</v>
+        <v>1.021901227280259</v>
       </c>
       <c r="E6">
-        <v>1.007481912392726</v>
+        <v>1.00764982983084</v>
       </c>
       <c r="F6">
-        <v>1.028242107538385</v>
+        <v>1.028299299668377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043968743183922</v>
+        <v>1.043914945611298</v>
       </c>
       <c r="J6">
-        <v>1.020676914576998</v>
+        <v>1.020862793086871</v>
       </c>
       <c r="K6">
-        <v>1.031640802915805</v>
+        <v>1.031487532444559</v>
       </c>
       <c r="L6">
-        <v>1.017231181592245</v>
+        <v>1.017397168129248</v>
       </c>
       <c r="M6">
-        <v>1.037758526685332</v>
+        <v>1.037815093288223</v>
       </c>
       <c r="N6">
-        <v>1.010841712282651</v>
+        <v>1.012761359381908</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038455728651704</v>
+        <v>1.038500497451254</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033457249904041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033359110912794</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020309655014692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000770837245287</v>
+        <v>1.001007284501987</v>
       </c>
       <c r="D7">
-        <v>1.021353089275721</v>
+        <v>1.021254834976251</v>
       </c>
       <c r="E7">
-        <v>1.006637741392046</v>
+        <v>1.006845787230282</v>
       </c>
       <c r="F7">
-        <v>1.027439500928201</v>
+        <v>1.027517429607426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043801970192317</v>
+        <v>1.043772132278707</v>
       </c>
       <c r="J7">
-        <v>1.020148761981953</v>
+        <v>1.020379177619658</v>
       </c>
       <c r="K7">
-        <v>1.031197537692219</v>
+        <v>1.031100408559451</v>
       </c>
       <c r="L7">
-        <v>1.016653734676408</v>
+        <v>1.016859311918482</v>
       </c>
       <c r="M7">
-        <v>1.037214767365231</v>
+        <v>1.037291816806179</v>
       </c>
       <c r="N7">
-        <v>1.010662026256104</v>
+        <v>1.012656481661519</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038025378253267</v>
+        <v>1.038086357927459</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033148053784999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033090031068798</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020238503763001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9961734462844128</v>
+        <v>0.9965910471426913</v>
       </c>
       <c r="D8">
-        <v>1.018358790498322</v>
+        <v>1.018491830425993</v>
       </c>
       <c r="E8">
-        <v>1.003054662149576</v>
+        <v>1.003420680375575</v>
       </c>
       <c r="F8">
-        <v>1.024036843074097</v>
+        <v>1.02419696903697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043067871085534</v>
+        <v>1.043135216713098</v>
       </c>
       <c r="J8">
-        <v>1.017893234034783</v>
+        <v>1.018298600136798</v>
       </c>
       <c r="K8">
-        <v>1.029295692592379</v>
+        <v>1.029427011106441</v>
       </c>
       <c r="L8">
-        <v>1.014193414473537</v>
+        <v>1.014554514886804</v>
       </c>
       <c r="M8">
-        <v>1.034900773517912</v>
+        <v>1.035058856273634</v>
       </c>
       <c r="N8">
-        <v>1.009893575571603</v>
+        <v>1.012145931416446</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036193998603126</v>
+        <v>1.036319111247426</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03180787509348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031911850787777</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019923299425973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9877544952970354</v>
+        <v>0.9884871088768103</v>
       </c>
       <c r="D9">
-        <v>1.012890629001993</v>
+        <v>1.013434398906841</v>
       </c>
       <c r="E9">
-        <v>0.9965401320261219</v>
+        <v>0.9971792618138294</v>
       </c>
       <c r="F9">
-        <v>1.017859685622222</v>
+        <v>1.018163120964643</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041642993336654</v>
+        <v>1.041881870775833</v>
       </c>
       <c r="J9">
-        <v>1.013747210026039</v>
+        <v>1.014453071634909</v>
       </c>
       <c r="K9">
-        <v>1.025777970370482</v>
+        <v>1.026313208822078</v>
       </c>
       <c r="L9">
-        <v>1.009689593704298</v>
+        <v>1.010318269909505</v>
       </c>
       <c r="M9">
-        <v>1.030669498242154</v>
+        <v>1.030968230611527</v>
       </c>
       <c r="N9">
-        <v>1.008478594367833</v>
+        <v>1.01111260735747</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032845199822707</v>
+        <v>1.033081628970075</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029317359654582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029706665172822</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019313797350467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9819773079765045</v>
+        <v>0.9829630728899341</v>
       </c>
       <c r="D10">
-        <v>1.009169464602347</v>
+        <v>1.010020560337281</v>
       </c>
       <c r="E10">
-        <v>0.992111962945567</v>
+        <v>0.9929705001529323</v>
       </c>
       <c r="F10">
-        <v>1.013833532564532</v>
+        <v>1.014251599629024</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040644210830101</v>
+        <v>1.041012052670622</v>
       </c>
       <c r="J10">
-        <v>1.010924693797463</v>
+        <v>1.011869334369405</v>
       </c>
       <c r="K10">
-        <v>1.023375111901014</v>
+        <v>1.024211217158799</v>
       </c>
       <c r="L10">
-        <v>1.006625113993078</v>
+        <v>1.007467844986009</v>
       </c>
       <c r="M10">
-        <v>1.027957430963552</v>
+        <v>1.028368217940964</v>
       </c>
       <c r="N10">
-        <v>1.007518946120051</v>
+        <v>1.010532196925125</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030750679277231</v>
+        <v>1.031075773383354</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02763534061801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028239061588125</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018896872304452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.979855104570979</v>
+        <v>0.9809711811611893</v>
       </c>
       <c r="D11">
-        <v>1.007879684558633</v>
+        <v>1.00886535490522</v>
       </c>
       <c r="E11">
-        <v>0.9905501395608193</v>
+        <v>0.9915213698697167</v>
       </c>
       <c r="F11">
-        <v>1.013759840528866</v>
+        <v>1.014234679384867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040464981215301</v>
+        <v>1.040888272867334</v>
       </c>
       <c r="J11">
-        <v>1.010090630299013</v>
+        <v>1.011157581633906</v>
       </c>
       <c r="K11">
-        <v>1.022654515896671</v>
+        <v>1.023621998057223</v>
       </c>
       <c r="L11">
-        <v>1.005652494208766</v>
+        <v>1.006604971838983</v>
       </c>
       <c r="M11">
-        <v>1.028426849338788</v>
+        <v>1.02889305220829</v>
       </c>
       <c r="N11">
-        <v>1.007269661190659</v>
+        <v>1.010593915035505</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031561892374955</v>
+        <v>1.031930653442032</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027159029667712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027858850379604</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018812338155278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9791968812068149</v>
+        <v>0.9803539601715795</v>
       </c>
       <c r="D12">
-        <v>1.007501283646089</v>
+        <v>1.008526885394986</v>
       </c>
       <c r="E12">
-        <v>0.9900902824849305</v>
+        <v>0.9910961715927475</v>
       </c>
       <c r="F12">
-        <v>1.014306460418611</v>
+        <v>1.014798207922882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040482211591392</v>
+        <v>1.040920607328214</v>
       </c>
       <c r="J12">
-        <v>1.009908527890024</v>
+        <v>1.01101369316106</v>
       </c>
       <c r="K12">
-        <v>1.022486168283114</v>
+        <v>1.023492526960508</v>
       </c>
       <c r="L12">
-        <v>1.005409831948464</v>
+        <v>1.00639596634638</v>
       </c>
       <c r="M12">
-        <v>1.029164609730306</v>
+        <v>1.029647285054235</v>
       </c>
       <c r="N12">
-        <v>1.007235500224434</v>
+        <v>1.010676828132188</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03247399067213</v>
+        <v>1.03285565032969</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027040000081318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027767310417216</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018808481681171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9796320217211069</v>
+        <v>0.9807527087200177</v>
       </c>
       <c r="D13">
-        <v>1.007813633615889</v>
+        <v>1.008800357258403</v>
       </c>
       <c r="E13">
-        <v>0.9904549866585151</v>
+        <v>0.9914278094558433</v>
       </c>
       <c r="F13">
-        <v>1.015392053450368</v>
+        <v>1.01586625506375</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040663587188089</v>
+        <v>1.041083377918288</v>
       </c>
       <c r="J13">
-        <v>1.010228247129319</v>
+        <v>1.011298899157114</v>
       </c>
       <c r="K13">
-        <v>1.022749115883814</v>
+        <v>1.023717401983663</v>
       </c>
       <c r="L13">
-        <v>1.005722710351162</v>
+        <v>1.006676509779642</v>
       </c>
       <c r="M13">
-        <v>1.030187125560597</v>
+        <v>1.030652632037449</v>
       </c>
       <c r="N13">
-        <v>1.007369882761403</v>
+        <v>1.010749246975091</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033560628602584</v>
+        <v>1.03392861918695</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027223397213068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027923542995655</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018870385698719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9804295057675833</v>
+        <v>0.9814904302617161</v>
       </c>
       <c r="D14">
-        <v>1.008344522331477</v>
+        <v>1.009269078894699</v>
       </c>
       <c r="E14">
-        <v>0.9910817570598454</v>
+        <v>0.9920015511952308</v>
       </c>
       <c r="F14">
-        <v>1.016383419528818</v>
+        <v>1.016830241412008</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040862835566229</v>
+        <v>1.041254854872877</v>
       </c>
       <c r="J14">
-        <v>1.010676582879554</v>
+        <v>1.011690817119381</v>
       </c>
       <c r="K14">
-        <v>1.023127535179046</v>
+        <v>1.024035028088491</v>
       </c>
       <c r="L14">
-        <v>1.006191033741463</v>
+        <v>1.007093068724741</v>
       </c>
       <c r="M14">
-        <v>1.031019416667427</v>
+        <v>1.0314581557214</v>
       </c>
       <c r="N14">
-        <v>1.007539491704187</v>
+        <v>1.010795828002707</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034392606367916</v>
+        <v>1.034739389759734</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027492397055175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028149692245284</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018943529871821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808686625295727</v>
+        <v>0.981898586082058</v>
       </c>
       <c r="D15">
-        <v>1.008632342034125</v>
+        <v>1.009524697589806</v>
       </c>
       <c r="E15">
-        <v>0.9914205999444634</v>
+        <v>0.9923131586251718</v>
       </c>
       <c r="F15">
-        <v>1.016774810578029</v>
+        <v>1.017207672335526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040953014767404</v>
+        <v>1.04133106955729</v>
       </c>
       <c r="J15">
-        <v>1.0109035146717</v>
+        <v>1.011888508191038</v>
       </c>
       <c r="K15">
-        <v>1.023322247212525</v>
+        <v>1.024198257657478</v>
       </c>
       <c r="L15">
-        <v>1.006433306573243</v>
+        <v>1.007308765255105</v>
       </c>
       <c r="M15">
-        <v>1.031316953399258</v>
+        <v>1.031742045990548</v>
       </c>
       <c r="N15">
-        <v>1.007620625429526</v>
+        <v>1.010810207654158</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.0346654558269</v>
+        <v>1.035001444048955</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02763600016319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02827160278311</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018978250273894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832233739391403</v>
+        <v>0.9841035039640557</v>
       </c>
       <c r="D16">
-        <v>1.010144076308465</v>
+        <v>1.010877810695219</v>
       </c>
       <c r="E16">
-        <v>0.9932126988319353</v>
+        <v>0.9939749189214793</v>
       </c>
       <c r="F16">
-        <v>1.018317994678174</v>
+        <v>1.018684217411667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041355139253252</v>
+        <v>1.041666369942366</v>
       </c>
       <c r="J16">
-        <v>1.012039822174703</v>
+        <v>1.01288347903519</v>
       </c>
       <c r="K16">
-        <v>1.024296413354569</v>
+        <v>1.025017292507166</v>
       </c>
       <c r="L16">
-        <v>1.007668549404029</v>
+        <v>1.008416816469036</v>
       </c>
       <c r="M16">
-        <v>1.032328474917037</v>
+        <v>1.032688410793489</v>
       </c>
       <c r="N16">
-        <v>1.008002190798989</v>
+        <v>1.010868286483387</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035426091679109</v>
+        <v>1.035710588928244</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02832798397794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028854197351637</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019137887306503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984617406545823</v>
+        <v>0.9854221704114426</v>
       </c>
       <c r="D17">
-        <v>1.011030523849381</v>
+        <v>1.01168098886665</v>
       </c>
       <c r="E17">
-        <v>0.9942652377052814</v>
+        <v>0.9949624114075941</v>
       </c>
       <c r="F17">
-        <v>1.018980929211178</v>
+        <v>1.019313894742193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041558619833365</v>
+        <v>1.041835538946842</v>
       </c>
       <c r="J17">
-        <v>1.012679824941135</v>
+        <v>1.013452313883455</v>
       </c>
       <c r="K17">
-        <v>1.024847873265065</v>
+        <v>1.025487261623562</v>
       </c>
       <c r="L17">
-        <v>1.008374570825483</v>
+        <v>1.009059348121278</v>
       </c>
       <c r="M17">
-        <v>1.032664142275653</v>
+        <v>1.032991548950596</v>
       </c>
       <c r="N17">
-        <v>1.008207013102175</v>
+        <v>1.010918364030179</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035561835931143</v>
+        <v>1.035820647658484</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028720508924664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029189349617931</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019223557844579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9852965426639392</v>
+        <v>0.9860733950449392</v>
       </c>
       <c r="D18">
-        <v>1.011438668837263</v>
+        <v>1.012056663506297</v>
       </c>
       <c r="E18">
-        <v>0.9947591453323175</v>
+        <v>0.9954329052224019</v>
       </c>
       <c r="F18">
-        <v>1.018838393566428</v>
+        <v>1.019159497641916</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04159349906721</v>
+        <v>1.041858058092415</v>
       </c>
       <c r="J18">
-        <v>1.012926772918257</v>
+        <v>1.013673057172723</v>
       </c>
       <c r="K18">
-        <v>1.025062834457324</v>
+        <v>1.025670478647225</v>
       </c>
       <c r="L18">
-        <v>1.008668960145532</v>
+        <v>1.009330941112198</v>
       </c>
       <c r="M18">
-        <v>1.03233968608146</v>
+        <v>1.032655510146559</v>
       </c>
       <c r="N18">
-        <v>1.00826916347497</v>
+        <v>1.010921142288292</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035066471317768</v>
+        <v>1.035316179573862</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028860741760275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02930600418655</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019245059333509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9853217972197553</v>
+        <v>0.9861079595822156</v>
       </c>
       <c r="D19">
-        <v>1.011417265725406</v>
+        <v>1.012045200919899</v>
       </c>
       <c r="E19">
-        <v>0.994741973968003</v>
+        <v>0.9954248622679833</v>
       </c>
       <c r="F19">
-        <v>1.01791276851537</v>
+        <v>1.018238969448201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04147468277189</v>
+        <v>1.041745023182741</v>
       </c>
       <c r="J19">
-        <v>1.012813087122291</v>
+        <v>1.013568499301372</v>
       </c>
       <c r="K19">
-        <v>1.024978287719118</v>
+        <v>1.025595761782925</v>
       </c>
       <c r="L19">
-        <v>1.00858705476881</v>
+        <v>1.0092580683656</v>
       </c>
       <c r="M19">
-        <v>1.031366380295315</v>
+        <v>1.031687233603017</v>
       </c>
       <c r="N19">
-        <v>1.008204184428994</v>
+        <v>1.010862298968718</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033969354050023</v>
+        <v>1.03422312257237</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028807422941661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029260258666251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019210326123667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9834980028575999</v>
+        <v>0.9843955672285155</v>
       </c>
       <c r="D20">
-        <v>1.01016547091006</v>
+        <v>1.010920268729626</v>
       </c>
       <c r="E20">
-        <v>0.9932785420087249</v>
+        <v>0.9940599952029499</v>
       </c>
       <c r="F20">
-        <v>1.01489327846144</v>
+        <v>1.015271534294754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040922460169331</v>
+        <v>1.041249022895923</v>
       </c>
       <c r="J20">
-        <v>1.011680211483851</v>
+        <v>1.0125415547036</v>
       </c>
       <c r="K20">
-        <v>1.024031897268182</v>
+        <v>1.024773778297446</v>
       </c>
       <c r="L20">
-        <v>1.007440618852241</v>
+        <v>1.008208102822363</v>
       </c>
       <c r="M20">
-        <v>1.028679206981109</v>
+        <v>1.029051064249568</v>
       </c>
       <c r="N20">
-        <v>1.007778573453878</v>
+        <v>1.010617182301983</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03131124604135</v>
+        <v>1.031605535040691</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028142235272441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028683424123161</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019011449498935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9790800350371064</v>
+        <v>0.9802774677043128</v>
       </c>
       <c r="D21">
-        <v>1.007310548138027</v>
+        <v>1.008378990935533</v>
       </c>
       <c r="E21">
-        <v>0.9898938740848853</v>
+        <v>0.9909385319800476</v>
       </c>
       <c r="F21">
-        <v>1.011554656451992</v>
+        <v>1.012068897743029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040102470493459</v>
+        <v>1.040564760079199</v>
       </c>
       <c r="J21">
-        <v>1.00947921949412</v>
+        <v>1.010623566739418</v>
       </c>
       <c r="K21">
-        <v>1.022154731060834</v>
+        <v>1.023203340753326</v>
       </c>
       <c r="L21">
-        <v>1.005069273394154</v>
+        <v>1.006093634548183</v>
       </c>
       <c r="M21">
-        <v>1.026320379784487</v>
+        <v>1.026825172667366</v>
       </c>
       <c r="N21">
-        <v>1.007023702745642</v>
+        <v>1.010513304286909</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029403118604843</v>
+        <v>1.02980263448825</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026818242653891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02757663597684</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018696882156346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9762674445918608</v>
+        <v>0.9776553579518253</v>
       </c>
       <c r="D22">
-        <v>1.005495531368383</v>
+        <v>1.006763493633172</v>
       </c>
       <c r="E22">
-        <v>0.9877492627088104</v>
+        <v>0.9889610798595549</v>
       </c>
       <c r="F22">
-        <v>1.009529278777752</v>
+        <v>1.010130410714531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03957920222894</v>
+        <v>1.040128035620764</v>
       </c>
       <c r="J22">
-        <v>1.008085816933239</v>
+        <v>1.00940860164072</v>
       </c>
       <c r="K22">
-        <v>1.02095890120627</v>
+        <v>1.022202144656356</v>
       </c>
       <c r="L22">
-        <v>1.003567379269793</v>
+        <v>1.004754438304891</v>
       </c>
       <c r="M22">
-        <v>1.02491429332653</v>
+        <v>1.025503818498862</v>
       </c>
       <c r="N22">
-        <v>1.006546549175491</v>
+        <v>1.010441600883785</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028290277067628</v>
+        <v>1.028756854639929</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025959068318084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026853785395154</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018494595830502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9777548506242177</v>
+        <v>0.9790298552512325</v>
       </c>
       <c r="D23">
-        <v>1.006448569808489</v>
+        <v>1.007601854736369</v>
       </c>
       <c r="E23">
-        <v>0.9888813671955158</v>
+        <v>0.9899938017628409</v>
       </c>
       <c r="F23">
-        <v>1.010601740779067</v>
+        <v>1.011151306556622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039852958027006</v>
+        <v>1.040351735227795</v>
       </c>
       <c r="J23">
-        <v>1.00881873969649</v>
+        <v>1.010035675739235</v>
       </c>
       <c r="K23">
-        <v>1.02158347543132</v>
+        <v>1.022714848591395</v>
       </c>
       <c r="L23">
-        <v>1.004358348882771</v>
+        <v>1.005448648383755</v>
       </c>
       <c r="M23">
-        <v>1.0256580444505</v>
+        <v>1.026197272452799</v>
       </c>
       <c r="N23">
-        <v>1.006796585749677</v>
+        <v>1.010434598414018</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028878916161282</v>
+        <v>1.029305685868182</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026390937237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027205614243596</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018596264182268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835146819636723</v>
+        <v>0.9844126317062387</v>
       </c>
       <c r="D24">
-        <v>1.010159663478927</v>
+        <v>1.010914799574976</v>
       </c>
       <c r="E24">
-        <v>0.9932840689638157</v>
+        <v>0.9940660006356498</v>
       </c>
       <c r="F24">
-        <v>1.014769361925232</v>
+        <v>1.015147951992281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040900182669727</v>
+        <v>1.04122716713013</v>
       </c>
       <c r="J24">
-        <v>1.01166242899633</v>
+        <v>1.012524194920228</v>
       </c>
       <c r="K24">
-        <v>1.024010682570051</v>
+        <v>1.024752912512293</v>
       </c>
       <c r="L24">
-        <v>1.007430159370998</v>
+        <v>1.008198131533849</v>
       </c>
       <c r="M24">
-        <v>1.028541982058036</v>
+        <v>1.028914174115265</v>
       </c>
       <c r="N24">
-        <v>1.007768106766515</v>
+        <v>1.010605249296422</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031161393247728</v>
+        <v>1.031455962126333</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028099542905061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028638312076089</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019002429093986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9899834460749529</v>
+        <v>0.9906224084168667</v>
       </c>
       <c r="D25">
-        <v>1.014346083239215</v>
+        <v>1.014773993013998</v>
       </c>
       <c r="E25">
-        <v>0.9982608995822004</v>
+        <v>0.998818674905571</v>
       </c>
       <c r="F25">
-        <v>1.019485032939442</v>
+        <v>1.019745990975878</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04203547776832</v>
+        <v>1.042225614533246</v>
       </c>
       <c r="J25">
-        <v>1.014852674169505</v>
+        <v>1.015469540435665</v>
       </c>
       <c r="K25">
-        <v>1.02672570314788</v>
+        <v>1.027147210571786</v>
       </c>
       <c r="L25">
-        <v>1.010886272968478</v>
+        <v>1.011435357146552</v>
       </c>
       <c r="M25">
-        <v>1.031788215751276</v>
+        <v>1.032045318392768</v>
       </c>
       <c r="N25">
-        <v>1.008857470970822</v>
+        <v>1.011356452177557</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033730598700291</v>
+        <v>1.033934080108191</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030016348476832</v>
+        <v>1.030328034549242</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019480729401372</v>
       </c>
     </row>
   </sheetData>
